--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2599.874537127332</v>
+        <v>2729.204461858993</v>
       </c>
       <c r="AB2" t="n">
-        <v>3557.263040067392</v>
+        <v>3734.217948718855</v>
       </c>
       <c r="AC2" t="n">
-        <v>3217.762848173259</v>
+        <v>3377.829428700794</v>
       </c>
       <c r="AD2" t="n">
-        <v>2599874.537127332</v>
+        <v>2729204.461858992</v>
       </c>
       <c r="AE2" t="n">
-        <v>3557263.040067391</v>
+        <v>3734217.948718855</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.037384163990855e-06</v>
+        <v>1.495559833099642e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.29583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3217762.848173259</v>
+        <v>3377829.428700794</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>891.8189625926892</v>
+        <v>960.8859049565573</v>
       </c>
       <c r="AB3" t="n">
-        <v>1220.226048895168</v>
+        <v>1314.726486455862</v>
       </c>
       <c r="AC3" t="n">
-        <v>1103.769387386629</v>
+        <v>1189.250835818726</v>
       </c>
       <c r="AD3" t="n">
-        <v>891818.9625926892</v>
+        <v>960885.9049565573</v>
       </c>
       <c r="AE3" t="n">
-        <v>1220226.048895168</v>
+        <v>1314726.486455861</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.941867614524296e-06</v>
+        <v>2.799521436983454e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.65208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1103769.387386628</v>
+        <v>1189250.835818726</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>686.2110352384115</v>
+        <v>746.4740176062037</v>
       </c>
       <c r="AB4" t="n">
-        <v>938.9042119074741</v>
+        <v>1021.358682998234</v>
       </c>
       <c r="AC4" t="n">
-        <v>849.2965116833618</v>
+        <v>923.8816437787963</v>
       </c>
       <c r="AD4" t="n">
-        <v>686211.0352384115</v>
+        <v>746474.0176062037</v>
       </c>
       <c r="AE4" t="n">
-        <v>938904.2119074741</v>
+        <v>1021358.682998234</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.270399345266443e-06</v>
+        <v>3.27315394213609e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.3875</v>
       </c>
       <c r="AH4" t="n">
-        <v>849296.5116833618</v>
+        <v>923881.6437787963</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>595.4809059807989</v>
+        <v>647.1958614076792</v>
       </c>
       <c r="AB5" t="n">
-        <v>814.7632463264043</v>
+        <v>885.5219298442751</v>
       </c>
       <c r="AC5" t="n">
-        <v>737.0033856244098</v>
+        <v>801.008959697771</v>
       </c>
       <c r="AD5" t="n">
-        <v>595480.9059807989</v>
+        <v>647195.8614076793</v>
       </c>
       <c r="AE5" t="n">
-        <v>814763.2463264043</v>
+        <v>885521.9298442751</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.44721127140298e-06</v>
+        <v>3.528057404056603e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.41875</v>
       </c>
       <c r="AH5" t="n">
-        <v>737003.3856244098</v>
+        <v>801008.959697771</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>537.7561028273466</v>
+        <v>598.0189956865879</v>
       </c>
       <c r="AB6" t="n">
-        <v>735.7816240132684</v>
+        <v>818.2359726344798</v>
       </c>
       <c r="AC6" t="n">
-        <v>665.5596584934365</v>
+        <v>740.1446798076446</v>
       </c>
       <c r="AD6" t="n">
-        <v>537756.1028273465</v>
+        <v>598018.9956865879</v>
       </c>
       <c r="AE6" t="n">
-        <v>735781.6240132684</v>
+        <v>818235.9726344799</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.556916360887036e-06</v>
+        <v>3.686215327624446e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.8875</v>
       </c>
       <c r="AH6" t="n">
-        <v>665559.6584934365</v>
+        <v>740144.6798076446</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>501.9759537693591</v>
+        <v>553.7761605422601</v>
       </c>
       <c r="AB7" t="n">
-        <v>686.8256455633591</v>
+        <v>757.7009737338794</v>
       </c>
       <c r="AC7" t="n">
-        <v>621.2759699166392</v>
+        <v>685.3870562407127</v>
       </c>
       <c r="AD7" t="n">
-        <v>501975.9537693591</v>
+        <v>553776.16054226</v>
       </c>
       <c r="AE7" t="n">
-        <v>686825.6455633591</v>
+        <v>757700.9737338794</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.63058799677726e-06</v>
+        <v>3.79242510342466e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.55416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>621275.9699166392</v>
+        <v>685387.0562407126</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>492.5113502449313</v>
+        <v>544.1409648172402</v>
       </c>
       <c r="AB8" t="n">
-        <v>673.8757574723987</v>
+        <v>744.5176738680717</v>
       </c>
       <c r="AC8" t="n">
-        <v>609.562000969798</v>
+        <v>673.4619520112204</v>
       </c>
       <c r="AD8" t="n">
-        <v>492511.3502449313</v>
+        <v>544140.9648172401</v>
       </c>
       <c r="AE8" t="n">
-        <v>673875.7574723987</v>
+        <v>744517.6738680718</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.649990625635477e-06</v>
+        <v>3.820397182991844e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.46875</v>
       </c>
       <c r="AH8" t="n">
-        <v>609562.000969798</v>
+        <v>673461.9520112204</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>494.1916264688957</v>
+        <v>545.8212410412045</v>
       </c>
       <c r="AB9" t="n">
-        <v>676.174785530582</v>
+        <v>746.8167019262552</v>
       </c>
       <c r="AC9" t="n">
-        <v>611.6416130168144</v>
+        <v>675.5415640582368</v>
       </c>
       <c r="AD9" t="n">
-        <v>494191.6264688957</v>
+        <v>545821.2410412045</v>
       </c>
       <c r="AE9" t="n">
-        <v>676174.785530582</v>
+        <v>746816.7019262551</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.650136510062983e-06</v>
+        <v>3.820607499379568e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.46875</v>
       </c>
       <c r="AH9" t="n">
-        <v>611641.6130168145</v>
+        <v>675541.5640582368</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1585.086664319158</v>
+        <v>1677.678412932743</v>
       </c>
       <c r="AB2" t="n">
-        <v>2168.785503209755</v>
+        <v>2295.473618522515</v>
       </c>
       <c r="AC2" t="n">
-        <v>1961.799658692987</v>
+        <v>2076.396838088184</v>
       </c>
       <c r="AD2" t="n">
-        <v>1585086.664319159</v>
+        <v>1677678.412932743</v>
       </c>
       <c r="AE2" t="n">
-        <v>2168785.503209755</v>
+        <v>2295473.618522515</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.365935278256834e-06</v>
+        <v>1.999677862313156e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.01875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1961799.658692987</v>
+        <v>2076396.838088184</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>700.8513635777072</v>
+        <v>759.6880771167079</v>
       </c>
       <c r="AB3" t="n">
-        <v>958.9357550270006</v>
+        <v>1039.438742183668</v>
       </c>
       <c r="AC3" t="n">
-        <v>867.4162724420078</v>
+        <v>940.2361674910948</v>
       </c>
       <c r="AD3" t="n">
-        <v>700851.3635777072</v>
+        <v>759688.0771167078</v>
       </c>
       <c r="AE3" t="n">
-        <v>958935.7550270006</v>
+        <v>1039438.742183668</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.1992901126988e-06</v>
+        <v>3.219677989999959e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.29583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>867416.2724420078</v>
+        <v>940236.1674910948</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>552.869050879049</v>
+        <v>611.7056749094985</v>
       </c>
       <c r="AB4" t="n">
-        <v>756.4598262738198</v>
+        <v>836.9626909609387</v>
       </c>
       <c r="AC4" t="n">
-        <v>684.26436215228</v>
+        <v>757.0841464201404</v>
       </c>
       <c r="AD4" t="n">
-        <v>552869.050879049</v>
+        <v>611705.6749094985</v>
       </c>
       <c r="AE4" t="n">
-        <v>756459.8262738198</v>
+        <v>836962.6909609387</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.497951687736947e-06</v>
+        <v>3.656907300520093e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.5875</v>
       </c>
       <c r="AH4" t="n">
-        <v>684264.3621522801</v>
+        <v>757084.1464201404</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>477.1120571179227</v>
+        <v>527.616598447941</v>
       </c>
       <c r="AB5" t="n">
-        <v>652.8057652471603</v>
+        <v>721.9083067980032</v>
       </c>
       <c r="AC5" t="n">
-        <v>590.5028992306165</v>
+        <v>653.0103912018729</v>
       </c>
       <c r="AD5" t="n">
-        <v>477112.0571179228</v>
+        <v>527616.598447941</v>
       </c>
       <c r="AE5" t="n">
-        <v>652805.7652471602</v>
+        <v>721908.3067980031</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.662751303675127e-06</v>
+        <v>3.898167738664603e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.80833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>590502.8992306165</v>
+        <v>653010.391201873</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>455.8195493084885</v>
+        <v>506.3240906385067</v>
       </c>
       <c r="AB6" t="n">
-        <v>623.6724167031446</v>
+        <v>692.7749582539873</v>
       </c>
       <c r="AC6" t="n">
-        <v>564.1499965827302</v>
+        <v>626.6574885539866</v>
       </c>
       <c r="AD6" t="n">
-        <v>455819.5493084886</v>
+        <v>506324.0906385067</v>
       </c>
       <c r="AE6" t="n">
-        <v>623672.4167031446</v>
+        <v>692774.9582539872</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.71330796241074e-06</v>
+        <v>3.97218078516498e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.5875</v>
       </c>
       <c r="AH6" t="n">
-        <v>564149.9965827302</v>
+        <v>626657.4885539865</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>457.4852055373589</v>
+        <v>507.9897468673771</v>
       </c>
       <c r="AB7" t="n">
-        <v>625.9514410390515</v>
+        <v>695.0539825898942</v>
       </c>
       <c r="AC7" t="n">
-        <v>566.2115140346489</v>
+        <v>628.7190060059055</v>
       </c>
       <c r="AD7" t="n">
-        <v>457485.2055373589</v>
+        <v>507989.7468673771</v>
       </c>
       <c r="AE7" t="n">
-        <v>625951.4410390515</v>
+        <v>695053.9825898942</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.713458877809951e-06</v>
+        <v>3.972401719632145e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.5875</v>
       </c>
       <c r="AH7" t="n">
-        <v>566211.5140346489</v>
+        <v>628719.0060059055</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>514.2191068710238</v>
+        <v>568.5048766646822</v>
       </c>
       <c r="AB2" t="n">
-        <v>703.5772677668513</v>
+        <v>777.8534529176728</v>
       </c>
       <c r="AC2" t="n">
-        <v>636.4288408080794</v>
+        <v>703.6162110953874</v>
       </c>
       <c r="AD2" t="n">
-        <v>514219.1068710238</v>
+        <v>568504.8766646822</v>
       </c>
       <c r="AE2" t="n">
-        <v>703577.2677668512</v>
+        <v>777853.4529176728</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.425964645061028e-06</v>
+        <v>3.753266749797421e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.46041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>636428.8408080793</v>
+        <v>703616.2110953873</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>389.3540933895525</v>
+        <v>443.6397736746599</v>
       </c>
       <c r="AB3" t="n">
-        <v>532.731447665889</v>
+        <v>607.0075103471623</v>
       </c>
       <c r="AC3" t="n">
-        <v>481.8883059939386</v>
+        <v>549.0755655000199</v>
       </c>
       <c r="AD3" t="n">
-        <v>389354.0933895526</v>
+        <v>443639.7736746599</v>
       </c>
       <c r="AE3" t="n">
-        <v>532731.447665889</v>
+        <v>607007.5103471624</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.793075774190074e-06</v>
+        <v>4.321232980156881e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.56041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>481888.3059939386</v>
+        <v>549075.5655000199</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>772.6826106663993</v>
+        <v>844.790459417529</v>
       </c>
       <c r="AB2" t="n">
-        <v>1057.218436264716</v>
+        <v>1155.879576099782</v>
       </c>
       <c r="AC2" t="n">
-        <v>956.318992523005</v>
+        <v>1045.564051643992</v>
       </c>
       <c r="AD2" t="n">
-        <v>772682.6106663994</v>
+        <v>844790.4594175289</v>
       </c>
       <c r="AE2" t="n">
-        <v>1057218.436264716</v>
+        <v>1155879.576099782</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.993321901821772e-06</v>
+        <v>3.012495367381456e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.8375</v>
       </c>
       <c r="AH2" t="n">
-        <v>956318.992523005</v>
+        <v>1045564.051643992</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>445.0115142343384</v>
+        <v>493.0550559587854</v>
       </c>
       <c r="AB3" t="n">
-        <v>608.884386297837</v>
+        <v>674.619679616697</v>
       </c>
       <c r="AC3" t="n">
-        <v>550.773315044174</v>
+        <v>610.2349242287456</v>
       </c>
       <c r="AD3" t="n">
-        <v>445011.5142343384</v>
+        <v>493055.0559587853</v>
       </c>
       <c r="AE3" t="n">
-        <v>608884.3862978369</v>
+        <v>674619.679616697</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.690251550838258e-06</v>
+        <v>4.06576094236668e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.47708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>550773.315044174</v>
+        <v>610234.9242287456</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>413.2413424241902</v>
+        <v>461.2848841486372</v>
       </c>
       <c r="AB4" t="n">
-        <v>565.415035626132</v>
+        <v>631.1503289449921</v>
       </c>
       <c r="AC4" t="n">
-        <v>511.4526181909598</v>
+        <v>570.9142273755315</v>
       </c>
       <c r="AD4" t="n">
-        <v>413241.3424241903</v>
+        <v>461284.8841486372</v>
       </c>
       <c r="AE4" t="n">
-        <v>565415.0356261319</v>
+        <v>631150.3289449922</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.793679390567473e-06</v>
+        <v>4.222070812718163e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.01458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>511452.6181909598</v>
+        <v>570914.2273755315</v>
       </c>
     </row>
     <row r="5">
@@ -5464,28 +5464,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>415.2771966448197</v>
+        <v>463.3207383692666</v>
       </c>
       <c r="AB5" t="n">
-        <v>568.2005811863463</v>
+        <v>633.9358745052066</v>
       </c>
       <c r="AC5" t="n">
-        <v>513.9723151924451</v>
+        <v>573.4339243770169</v>
       </c>
       <c r="AD5" t="n">
-        <v>415277.1966448197</v>
+        <v>463320.7383692666</v>
       </c>
       <c r="AE5" t="n">
-        <v>568200.5811863464</v>
+        <v>633935.8745052066</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.793840493121569e-06</v>
+        <v>4.222314286036467e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.0125</v>
       </c>
       <c r="AH5" t="n">
-        <v>513972.3151924451</v>
+        <v>573433.9243770168</v>
       </c>
     </row>
   </sheetData>
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>386.6887385956911</v>
+        <v>439.429827855087</v>
       </c>
       <c r="AB2" t="n">
-        <v>529.0845916497731</v>
+        <v>601.2472767471212</v>
       </c>
       <c r="AC2" t="n">
-        <v>478.5895007976061</v>
+        <v>543.865080510228</v>
       </c>
       <c r="AD2" t="n">
-        <v>386688.7385956911</v>
+        <v>439429.827855087</v>
       </c>
       <c r="AE2" t="n">
-        <v>529084.5916497731</v>
+        <v>601247.2767471212</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.721049932779611e-06</v>
+        <v>4.300586739880528e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.39166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>478589.5007976061</v>
+        <v>543865.0805102281</v>
       </c>
     </row>
     <row r="3">
@@ -5867,28 +5867,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>383.8833631819853</v>
+        <v>436.6244524413812</v>
       </c>
       <c r="AB3" t="n">
-        <v>525.2461532443123</v>
+        <v>597.4088383416606</v>
       </c>
       <c r="AC3" t="n">
-        <v>475.1173975662804</v>
+        <v>540.3929772789024</v>
       </c>
       <c r="AD3" t="n">
-        <v>383883.3631819853</v>
+        <v>436624.4524413812</v>
       </c>
       <c r="AE3" t="n">
-        <v>525246.1532443123</v>
+        <v>597408.8383416606</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.74326187142616e-06</v>
+        <v>4.335692442153624e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.28125</v>
       </c>
       <c r="AH3" t="n">
-        <v>475117.3975662804</v>
+        <v>540392.9772789024</v>
       </c>
     </row>
   </sheetData>
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1781.507851762008</v>
+        <v>1883.112792245271</v>
       </c>
       <c r="AB2" t="n">
-        <v>2437.537637360272</v>
+        <v>2576.557999423088</v>
       </c>
       <c r="AC2" t="n">
-        <v>2204.902466356168</v>
+        <v>2330.654920180013</v>
       </c>
       <c r="AD2" t="n">
-        <v>1781507.851762008</v>
+        <v>1883112.792245271</v>
       </c>
       <c r="AE2" t="n">
-        <v>2437537.637360272</v>
+        <v>2576557.999423089</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.279483550101669e-06</v>
+        <v>1.865341524577172e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.35416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2204902.466356168</v>
+        <v>2330654.920180013</v>
       </c>
     </row>
     <row r="3">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>744.77138101887</v>
+        <v>812.4795013838211</v>
       </c>
       <c r="AB3" t="n">
-        <v>1019.029060504419</v>
+        <v>1111.670297859198</v>
       </c>
       <c r="AC3" t="n">
-        <v>921.7743571861456</v>
+        <v>1005.574044870578</v>
       </c>
       <c r="AD3" t="n">
-        <v>744771.38101887</v>
+        <v>812479.5013838211</v>
       </c>
       <c r="AE3" t="n">
-        <v>1019029.060504419</v>
+        <v>1111670.297859198</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.130029774464988e-06</v>
+        <v>3.105341203159331e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.62708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>921774.3571861456</v>
+        <v>1005574.044870578</v>
       </c>
     </row>
     <row r="4">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>582.8741195015938</v>
+        <v>642.1080572141045</v>
       </c>
       <c r="AB4" t="n">
-        <v>797.5140848933892</v>
+        <v>878.5605716885465</v>
       </c>
       <c r="AC4" t="n">
-        <v>721.4004599492116</v>
+        <v>794.7119837940977</v>
       </c>
       <c r="AD4" t="n">
-        <v>582874.1195015938</v>
+        <v>642108.0572141046</v>
       </c>
       <c r="AE4" t="n">
-        <v>797514.0848933891</v>
+        <v>878560.5716885464</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.439169750860096e-06</v>
+        <v>3.556032136099252e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.775</v>
       </c>
       <c r="AH4" t="n">
-        <v>721400.4599492116</v>
+        <v>794711.9837940977</v>
       </c>
     </row>
     <row r="5">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>503.9873063859836</v>
+        <v>563.1359032439226</v>
       </c>
       <c r="AB5" t="n">
-        <v>689.5776669480397</v>
+        <v>770.5073866209995</v>
       </c>
       <c r="AC5" t="n">
-        <v>623.7653422428521</v>
+        <v>696.9712430557995</v>
       </c>
       <c r="AD5" t="n">
-        <v>503987.3063859836</v>
+        <v>563135.9032439226</v>
       </c>
       <c r="AE5" t="n">
-        <v>689577.6669480397</v>
+        <v>770507.3866209994</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.608620932889925e-06</v>
+        <v>3.803072691019875e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.94375</v>
       </c>
       <c r="AH5" t="n">
-        <v>623765.3422428521</v>
+        <v>696971.2430557995</v>
       </c>
     </row>
     <row r="6">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>466.7195267661025</v>
+        <v>517.5646226807445</v>
       </c>
       <c r="AB6" t="n">
-        <v>638.5862467337189</v>
+        <v>708.1547500914519</v>
       </c>
       <c r="AC6" t="n">
-        <v>577.6404716068785</v>
+        <v>640.569454644157</v>
       </c>
       <c r="AD6" t="n">
-        <v>466719.5267661025</v>
+        <v>517564.6226807445</v>
       </c>
       <c r="AE6" t="n">
-        <v>638586.2467337189</v>
+        <v>708154.7500914519</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.693421303773344e-06</v>
+        <v>3.926701989025165e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.56875</v>
       </c>
       <c r="AH6" t="n">
-        <v>577640.4716068784</v>
+        <v>640569.454644157</v>
       </c>
     </row>
     <row r="7">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>466.6437560343613</v>
+        <v>517.4888519490033</v>
       </c>
       <c r="AB7" t="n">
-        <v>638.4825738757819</v>
+        <v>708.0510772335149</v>
       </c>
       <c r="AC7" t="n">
-        <v>577.546693140997</v>
+        <v>640.4756761782756</v>
       </c>
       <c r="AD7" t="n">
-        <v>466643.7560343613</v>
+        <v>517488.8519490033</v>
       </c>
       <c r="AE7" t="n">
-        <v>638482.5738757818</v>
+        <v>708051.0772335149</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.694169102458383e-06</v>
+        <v>3.927792194474947e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.56458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>577546.6931409971</v>
+        <v>640475.6761782756</v>
       </c>
     </row>
     <row r="8">
@@ -6800,28 +6800,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>468.7078313402352</v>
+        <v>519.5529272548771</v>
       </c>
       <c r="AB8" t="n">
-        <v>641.3067327698543</v>
+        <v>710.8752361275872</v>
       </c>
       <c r="AC8" t="n">
-        <v>580.1013182739512</v>
+        <v>643.0303013112297</v>
       </c>
       <c r="AD8" t="n">
-        <v>468707.8313402352</v>
+        <v>519552.9272548771</v>
       </c>
       <c r="AE8" t="n">
-        <v>641306.7327698543</v>
+        <v>710875.2361275872</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.693570863510352e-06</v>
+        <v>3.926920030115122e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.56666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>580101.3182739512</v>
+        <v>643030.3013112297</v>
       </c>
     </row>
   </sheetData>
@@ -7097,28 +7097,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>376.3171252000609</v>
+        <v>435.629339339268</v>
       </c>
       <c r="AB2" t="n">
-        <v>514.8936926385821</v>
+        <v>596.0472806940578</v>
       </c>
       <c r="AC2" t="n">
-        <v>465.7529612709914</v>
+        <v>539.1613647822286</v>
       </c>
       <c r="AD2" t="n">
-        <v>376317.1252000609</v>
+        <v>435629.339339268</v>
       </c>
       <c r="AE2" t="n">
-        <v>514893.6926385821</v>
+        <v>596047.2806940578</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.674954233002634e-06</v>
+        <v>4.285905021808233e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.93958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>465752.9612709914</v>
+        <v>539161.3647822286</v>
       </c>
     </row>
   </sheetData>
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1112.325008884951</v>
+        <v>1194.65713710468</v>
       </c>
       <c r="AB2" t="n">
-        <v>1521.932149472432</v>
+        <v>1634.582599539812</v>
       </c>
       <c r="AC2" t="n">
-        <v>1376.68108117197</v>
+        <v>1478.580330390819</v>
       </c>
       <c r="AD2" t="n">
-        <v>1112325.008884951</v>
+        <v>1194657.13710468</v>
       </c>
       <c r="AE2" t="n">
-        <v>1521932.149472432</v>
+        <v>1634582.599539812</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.652077272876048e-06</v>
+        <v>2.453075699762211e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.60833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1376681.08117197</v>
+        <v>1478580.330390819</v>
       </c>
     </row>
     <row r="3">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>570.0922864622772</v>
+        <v>627.5541840154953</v>
       </c>
       <c r="AB3" t="n">
-        <v>780.02541703432</v>
+        <v>858.6473203066388</v>
       </c>
       <c r="AC3" t="n">
-        <v>705.5808860051122</v>
+        <v>776.6992251756554</v>
       </c>
       <c r="AD3" t="n">
-        <v>570092.2864622772</v>
+        <v>627554.1840154952</v>
       </c>
       <c r="AE3" t="n">
-        <v>780025.41703432</v>
+        <v>858647.3203066388</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.425016202143515e-06</v>
+        <v>3.600768810681547e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.35833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>705580.8860051122</v>
+        <v>776699.2251756554</v>
       </c>
     </row>
     <row r="4">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>449.117531334431</v>
+        <v>506.5793393790981</v>
       </c>
       <c r="AB4" t="n">
-        <v>614.5024200388735</v>
+        <v>693.124200841644</v>
       </c>
       <c r="AC4" t="n">
-        <v>555.855171529926</v>
+        <v>626.9733999192425</v>
       </c>
       <c r="AD4" t="n">
-        <v>449117.531334431</v>
+        <v>506579.3393790981</v>
       </c>
       <c r="AE4" t="n">
-        <v>614502.4200388736</v>
+        <v>693124.200841644</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.702409694361008e-06</v>
+        <v>4.012654650528679e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.9875</v>
       </c>
       <c r="AH4" t="n">
-        <v>555855.171529926</v>
+        <v>626973.3999192425</v>
       </c>
     </row>
     <row r="5">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>430.6131695926288</v>
+        <v>480.0124465244662</v>
       </c>
       <c r="AB5" t="n">
-        <v>589.183935948915</v>
+        <v>656.7742059893429</v>
       </c>
       <c r="AC5" t="n">
-        <v>532.9530480267974</v>
+        <v>594.0925975581067</v>
       </c>
       <c r="AD5" t="n">
-        <v>430613.1695926288</v>
+        <v>480012.4465244662</v>
       </c>
       <c r="AE5" t="n">
-        <v>589183.935948915</v>
+        <v>656774.2059893429</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.757919490729643e-06</v>
+        <v>4.095077994040689e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.74583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>532953.0480267975</v>
+        <v>594092.5975581068</v>
       </c>
     </row>
     <row r="6">
@@ -7818,28 +7818,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>432.8477176398114</v>
+        <v>482.2469945716488</v>
       </c>
       <c r="AB6" t="n">
-        <v>592.2413431683726</v>
+        <v>659.8316132088006</v>
       </c>
       <c r="AC6" t="n">
-        <v>535.7186605923281</v>
+        <v>596.8582101236373</v>
       </c>
       <c r="AD6" t="n">
-        <v>432847.7176398114</v>
+        <v>482246.9945716488</v>
       </c>
       <c r="AE6" t="n">
-        <v>592241.3431683726</v>
+        <v>659831.6132088006</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.758074980355326e-06</v>
+        <v>4.095308871753609e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.74583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>535718.6605923281</v>
+        <v>596858.2101236372</v>
       </c>
     </row>
   </sheetData>
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1402.399616478402</v>
+        <v>1502.531008229019</v>
       </c>
       <c r="AB2" t="n">
-        <v>1918.825024770298</v>
+        <v>2055.829212448726</v>
       </c>
       <c r="AC2" t="n">
-        <v>1735.695057494056</v>
+        <v>1859.62375778704</v>
       </c>
       <c r="AD2" t="n">
-        <v>1402399.616478402</v>
+        <v>1502531.008229019</v>
       </c>
       <c r="AE2" t="n">
-        <v>1918825.024770298</v>
+        <v>2055829.212448726</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.457216798870083e-06</v>
+        <v>2.142753482377972e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.78125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1735695.057494056</v>
+        <v>1859623.75778704</v>
       </c>
     </row>
     <row r="3">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>661.1204142347187</v>
+        <v>719.544705740225</v>
       </c>
       <c r="AB3" t="n">
-        <v>904.5741173301454</v>
+        <v>984.5128104658098</v>
       </c>
       <c r="AC3" t="n">
-        <v>818.2428331499029</v>
+        <v>890.5522896073601</v>
       </c>
       <c r="AD3" t="n">
-        <v>661120.4142347188</v>
+        <v>719544.705740225</v>
       </c>
       <c r="AE3" t="n">
-        <v>904574.1173301454</v>
+        <v>984512.8104658098</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.266798614781805e-06</v>
+        <v>3.33319697483553e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.00208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>818242.833149903</v>
+        <v>890552.28960736</v>
       </c>
     </row>
     <row r="4">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>519.520390968228</v>
+        <v>569.5861763520876</v>
       </c>
       <c r="AB4" t="n">
-        <v>710.8307185447941</v>
+        <v>779.3329348535565</v>
       </c>
       <c r="AC4" t="n">
-        <v>642.9900324240576</v>
+        <v>704.9544933517761</v>
       </c>
       <c r="AD4" t="n">
-        <v>519520.390968228</v>
+        <v>569586.1763520876</v>
       </c>
       <c r="AE4" t="n">
-        <v>710830.7185447941</v>
+        <v>779332.9348535564</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.566621161585394e-06</v>
+        <v>3.774068783860084e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.36666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>642990.0324240576</v>
+        <v>704954.4933517762</v>
       </c>
     </row>
     <row r="5">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>453.6947767300825</v>
+        <v>503.8458134599626</v>
       </c>
       <c r="AB5" t="n">
-        <v>620.7652091230187</v>
+        <v>689.3840700844305</v>
       </c>
       <c r="AC5" t="n">
-        <v>561.5202488137601</v>
+        <v>623.5902219921909</v>
       </c>
       <c r="AD5" t="n">
-        <v>453694.7767300825</v>
+        <v>503845.8134599627</v>
       </c>
       <c r="AE5" t="n">
-        <v>620765.2091230188</v>
+        <v>689384.0700844305</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.71028613192878e-06</v>
+        <v>3.985319859017682e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.71041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>561520.2488137601</v>
+        <v>623590.2219921909</v>
       </c>
     </row>
     <row r="6">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>448.479019124776</v>
+        <v>498.6300558546562</v>
       </c>
       <c r="AB6" t="n">
-        <v>613.6287794644529</v>
+        <v>682.2476404258645</v>
       </c>
       <c r="AC6" t="n">
-        <v>555.0649099857657</v>
+        <v>617.1348831641965</v>
       </c>
       <c r="AD6" t="n">
-        <v>448479.019124776</v>
+        <v>498630.0558546562</v>
       </c>
       <c r="AE6" t="n">
-        <v>613628.7794644529</v>
+        <v>682247.6404258645</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.729177389959087e-06</v>
+        <v>4.013098367309879e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.62916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>555064.9099857657</v>
+        <v>617134.8831641965</v>
       </c>
     </row>
     <row r="7">
@@ -8645,28 +8645,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>450.3983124400642</v>
+        <v>500.5493491699444</v>
       </c>
       <c r="AB7" t="n">
-        <v>616.2548412516753</v>
+        <v>684.8737022130869</v>
       </c>
       <c r="AC7" t="n">
-        <v>557.4403441217164</v>
+        <v>619.5103173001472</v>
       </c>
       <c r="AD7" t="n">
-        <v>450398.3124400642</v>
+        <v>500549.3491699444</v>
       </c>
       <c r="AE7" t="n">
-        <v>616254.8412516753</v>
+        <v>684873.7022130869</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.728872692248921e-06</v>
+        <v>4.012650326853553e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.63125</v>
       </c>
       <c r="AH7" t="n">
-        <v>557440.3441217165</v>
+        <v>619510.3173001473</v>
       </c>
     </row>
   </sheetData>
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2277.532055525981</v>
+        <v>2397.509396241997</v>
       </c>
       <c r="AB2" t="n">
-        <v>3116.219835993761</v>
+        <v>3280.378126588133</v>
       </c>
       <c r="AC2" t="n">
-        <v>2818.812188488408</v>
+        <v>2967.303442226054</v>
       </c>
       <c r="AD2" t="n">
-        <v>2277532.055525981</v>
+        <v>2397509.396241997</v>
       </c>
       <c r="AE2" t="n">
-        <v>3116219.835993761</v>
+        <v>3280378.126588133</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.116261353978494e-06</v>
+        <v>1.614976237189227e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.44583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2818812.188488408</v>
+        <v>2967303.442226054</v>
       </c>
     </row>
     <row r="3">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>844.9910252970337</v>
+        <v>913.4763947630749</v>
       </c>
       <c r="AB3" t="n">
-        <v>1156.153999184462</v>
+        <v>1249.858703049164</v>
       </c>
       <c r="AC3" t="n">
-        <v>1045.812284174626</v>
+        <v>1130.573942617858</v>
       </c>
       <c r="AD3" t="n">
-        <v>844991.0252970337</v>
+        <v>913476.3947630749</v>
       </c>
       <c r="AE3" t="n">
-        <v>1156153.999184462</v>
+        <v>1249858.703049164</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.000917961215304e-06</v>
+        <v>2.894873094379372e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.31041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1045812.284174626</v>
+        <v>1130573.942617858</v>
       </c>
     </row>
     <row r="4">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>653.6123266051784</v>
+        <v>705.1043873637045</v>
       </c>
       <c r="AB4" t="n">
-        <v>894.3012206019594</v>
+        <v>964.7549298011691</v>
       </c>
       <c r="AC4" t="n">
-        <v>808.950367267354</v>
+        <v>872.680073342993</v>
       </c>
       <c r="AD4" t="n">
-        <v>653612.3266051784</v>
+        <v>705104.3873637045</v>
       </c>
       <c r="AE4" t="n">
-        <v>894301.2206019594</v>
+        <v>964754.9298011691</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.324870505387958e-06</v>
+        <v>3.363558728752691e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.17708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>808950.3672673539</v>
+        <v>872680.0733429929</v>
       </c>
     </row>
     <row r="5">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>568.6615482394452</v>
+        <v>620.0682681433998</v>
       </c>
       <c r="AB5" t="n">
-        <v>778.0678178781258</v>
+        <v>848.4047599551377</v>
       </c>
       <c r="AC5" t="n">
-        <v>703.8101173648774</v>
+        <v>767.4342004085779</v>
       </c>
       <c r="AD5" t="n">
-        <v>568661.5482394452</v>
+        <v>620068.2681433997</v>
       </c>
       <c r="AE5" t="n">
-        <v>778067.8178781258</v>
+        <v>848404.7599551377</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.496478593926083e-06</v>
+        <v>3.611836593171059e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.27083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>703810.1173648775</v>
+        <v>767434.2004085779</v>
       </c>
     </row>
     <row r="6">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>512.6259596399567</v>
+        <v>564.1179308899317</v>
       </c>
       <c r="AB6" t="n">
-        <v>701.3974534406096</v>
+        <v>771.8510401702709</v>
       </c>
       <c r="AC6" t="n">
-        <v>634.4570649017458</v>
+        <v>698.1866601961582</v>
       </c>
       <c r="AD6" t="n">
-        <v>512625.9596399567</v>
+        <v>564117.9308899317</v>
       </c>
       <c r="AE6" t="n">
-        <v>701397.4534406096</v>
+        <v>771851.0401702709</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.60441375843935e-06</v>
+        <v>3.767994221691266e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.7625</v>
       </c>
       <c r="AH6" t="n">
-        <v>634457.0649017458</v>
+        <v>698186.6601961582</v>
       </c>
     </row>
     <row r="7">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>483.4192258285125</v>
+        <v>534.7406048778953</v>
       </c>
       <c r="AB7" t="n">
-        <v>661.4355117296345</v>
+        <v>731.6556866844489</v>
       </c>
       <c r="AC7" t="n">
-        <v>598.3090348207287</v>
+        <v>661.8274948324901</v>
       </c>
       <c r="AD7" t="n">
-        <v>483419.2258285125</v>
+        <v>534740.6048778953</v>
       </c>
       <c r="AE7" t="n">
-        <v>661435.5117296345</v>
+        <v>731655.686684449</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.663969264744355e-06</v>
+        <v>3.854157490833887e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>598309.0348207287</v>
+        <v>661827.4948324901</v>
       </c>
     </row>
     <row r="8">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>483.5176023220796</v>
+        <v>534.8389813714624</v>
       </c>
       <c r="AB8" t="n">
-        <v>661.5701147881975</v>
+        <v>731.7902897430118</v>
       </c>
       <c r="AC8" t="n">
-        <v>598.4307915522991</v>
+        <v>661.9492515640604</v>
       </c>
       <c r="AD8" t="n">
-        <v>483517.6023220796</v>
+        <v>534838.9813714625</v>
       </c>
       <c r="AE8" t="n">
-        <v>661570.1147881976</v>
+        <v>731790.2897430118</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.666616176135688e-06</v>
+        <v>3.857986969462448e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.48958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>598430.7915522991</v>
+        <v>661949.2515640605</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>877.7896395666235</v>
+        <v>950.651922665414</v>
       </c>
       <c r="AB2" t="n">
-        <v>1201.030510200855</v>
+        <v>1300.723900393685</v>
       </c>
       <c r="AC2" t="n">
-        <v>1086.405843964193</v>
+        <v>1176.584636917571</v>
       </c>
       <c r="AD2" t="n">
-        <v>877789.6395666235</v>
+        <v>950651.9226654139</v>
       </c>
       <c r="AE2" t="n">
-        <v>1201030.510200855</v>
+        <v>1300723.900393685</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.869263917341652e-06</v>
+        <v>2.807044864242399e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.73125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1086405.843964193</v>
+        <v>1176584.636917571</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>482.7501553592744</v>
+        <v>539.3354791370954</v>
       </c>
       <c r="AB3" t="n">
-        <v>660.5200599963172</v>
+        <v>737.942596357432</v>
       </c>
       <c r="AC3" t="n">
-        <v>597.4809525159945</v>
+        <v>667.5143906700167</v>
       </c>
       <c r="AD3" t="n">
-        <v>482750.1553592744</v>
+        <v>539335.4791370954</v>
       </c>
       <c r="AE3" t="n">
-        <v>660520.0599963171</v>
+        <v>737942.596357432</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.599310905995341e-06</v>
+        <v>3.90334519462609e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>597480.9525159945</v>
+        <v>667514.3906700168</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>414.5392188735624</v>
+        <v>471.0392017968118</v>
       </c>
       <c r="AB4" t="n">
-        <v>567.1908474424308</v>
+        <v>644.496616681348</v>
       </c>
       <c r="AC4" t="n">
-        <v>513.0589490198786</v>
+        <v>582.986764141962</v>
       </c>
       <c r="AD4" t="n">
-        <v>414539.2188735624</v>
+        <v>471039.2017968118</v>
       </c>
       <c r="AE4" t="n">
-        <v>567190.8474424308</v>
+        <v>644496.616681348</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.778919328350977e-06</v>
+        <v>4.173060399028615e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.92708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>513058.9490198786</v>
+        <v>582986.764141962</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>415.5161358084163</v>
+        <v>472.0161187316655</v>
       </c>
       <c r="AB5" t="n">
-        <v>568.5275082912314</v>
+        <v>645.8332775301484</v>
       </c>
       <c r="AC5" t="n">
-        <v>514.2680408332849</v>
+        <v>584.1958559553683</v>
       </c>
       <c r="AD5" t="n">
-        <v>415516.1358084163</v>
+        <v>472016.1187316655</v>
       </c>
       <c r="AE5" t="n">
-        <v>568527.5082912314</v>
+        <v>645833.2775301484</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.782578313040242e-06</v>
+        <v>4.178555040039473e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.91041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>514268.0408332849</v>
+        <v>584195.8559553683</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>598.4390998009508</v>
+        <v>661.134043537002</v>
       </c>
       <c r="AB2" t="n">
-        <v>818.8107776174367</v>
+        <v>904.5927655428115</v>
       </c>
       <c r="AC2" t="n">
-        <v>740.6646262097719</v>
+        <v>818.2597016033254</v>
       </c>
       <c r="AD2" t="n">
-        <v>598439.0998009507</v>
+        <v>661134.0435370019</v>
       </c>
       <c r="AE2" t="n">
-        <v>818810.7776174366</v>
+        <v>904592.7655428116</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.265492225332168e-06</v>
+        <v>3.474691335220042e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.23958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>740664.6262097718</v>
+        <v>818259.7016033254</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>397.0158251174116</v>
+        <v>444.0797257238736</v>
       </c>
       <c r="AB3" t="n">
-        <v>543.2145670276939</v>
+        <v>607.6094721502111</v>
       </c>
       <c r="AC3" t="n">
-        <v>491.3709311570032</v>
+        <v>549.6200769134444</v>
       </c>
       <c r="AD3" t="n">
-        <v>397015.8251174116</v>
+        <v>444079.7257238736</v>
       </c>
       <c r="AE3" t="n">
-        <v>543214.5670276938</v>
+        <v>607609.4721502111</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.798100813746885e-06</v>
+        <v>4.291578026127598e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.3375</v>
       </c>
       <c r="AH3" t="n">
-        <v>491370.9311570032</v>
+        <v>549620.0769134444</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>397.695554285717</v>
+        <v>444.759454892179</v>
       </c>
       <c r="AB4" t="n">
-        <v>544.1446024633037</v>
+        <v>608.539507585821</v>
       </c>
       <c r="AC4" t="n">
-        <v>492.2122053159513</v>
+        <v>550.4613510723925</v>
       </c>
       <c r="AD4" t="n">
-        <v>397695.554285717</v>
+        <v>444759.454892179</v>
       </c>
       <c r="AE4" t="n">
-        <v>544144.6024633037</v>
+        <v>608539.507585821</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.803569414685804e-06</v>
+        <v>4.299965475038597e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.31458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>492212.2053159513</v>
+        <v>550461.3510723925</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>434.2989620570588</v>
+        <v>487.9767826876986</v>
       </c>
       <c r="AB2" t="n">
-        <v>594.2269998044356</v>
+        <v>667.6713620895913</v>
       </c>
       <c r="AC2" t="n">
-        <v>537.5148089459317</v>
+        <v>603.949744374402</v>
       </c>
       <c r="AD2" t="n">
-        <v>434298.9620570588</v>
+        <v>487976.7826876986</v>
       </c>
       <c r="AE2" t="n">
-        <v>594226.9998044356</v>
+        <v>667671.3620895913</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.605827229439103e-06</v>
+        <v>4.071553645103936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.70416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>537514.8089459317</v>
+        <v>603949.744374402</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>382.7057497590471</v>
+        <v>436.2982295351154</v>
       </c>
       <c r="AB3" t="n">
-        <v>523.6348906064106</v>
+        <v>596.9624857693688</v>
       </c>
       <c r="AC3" t="n">
-        <v>473.659911573119</v>
+        <v>539.9892239696503</v>
       </c>
       <c r="AD3" t="n">
-        <v>382705.7497590471</v>
+        <v>436298.2295351154</v>
       </c>
       <c r="AE3" t="n">
-        <v>523634.8906064107</v>
+        <v>596962.4857693687</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.777080528709524e-06</v>
+        <v>4.339133547180038e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.86041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>473659.9115731189</v>
+        <v>539989.2239696503</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>389.5670157621262</v>
+        <v>440.6093983848302</v>
       </c>
       <c r="AB2" t="n">
-        <v>533.0227774495163</v>
+        <v>602.8612171848948</v>
       </c>
       <c r="AC2" t="n">
-        <v>482.1518316719005</v>
+        <v>545.3249887378001</v>
       </c>
       <c r="AD2" t="n">
-        <v>389567.0157621262</v>
+        <v>440609.3983848302</v>
       </c>
       <c r="AE2" t="n">
-        <v>533022.7774495163</v>
+        <v>602861.2171848948</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.544779828738836e-06</v>
+        <v>4.147166950878852e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>482151.8316719005</v>
+        <v>545324.9887378002</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1251.481060924117</v>
+        <v>1342.664872100979</v>
       </c>
       <c r="AB2" t="n">
-        <v>1712.331599004157</v>
+        <v>1837.093312202177</v>
       </c>
       <c r="AC2" t="n">
-        <v>1548.909074467693</v>
+        <v>1661.763704862258</v>
       </c>
       <c r="AD2" t="n">
-        <v>1251481.060924117</v>
+        <v>1342664.872100979</v>
       </c>
       <c r="AE2" t="n">
-        <v>1712331.599004157</v>
+        <v>1837093.312202177</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.550391448653428e-06</v>
+        <v>2.290518566117798e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.67708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1548909.074467693</v>
+        <v>1661763.704862257</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>611.6476472144258</v>
+        <v>669.7280166889741</v>
       </c>
       <c r="AB3" t="n">
-        <v>836.8832949085387</v>
+        <v>916.351418748677</v>
       </c>
       <c r="AC3" t="n">
-        <v>757.0123278155482</v>
+        <v>828.8961254505963</v>
       </c>
       <c r="AD3" t="n">
-        <v>611647.6472144257</v>
+        <v>669728.0166889741</v>
       </c>
       <c r="AE3" t="n">
-        <v>836883.2949085387</v>
+        <v>916351.418748677</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.342205104347209e-06</v>
+        <v>3.460328861993362e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.68541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>757012.3278155483</v>
+        <v>828896.1254505963</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>489.4492075930497</v>
+        <v>539.1471300823563</v>
       </c>
       <c r="AB4" t="n">
-        <v>669.6859988038948</v>
+        <v>737.684888871364</v>
       </c>
       <c r="AC4" t="n">
-        <v>605.7721069882527</v>
+        <v>667.2812784247245</v>
       </c>
       <c r="AD4" t="n">
-        <v>489449.2075930497</v>
+        <v>539147.1300823563</v>
       </c>
       <c r="AE4" t="n">
-        <v>669685.9988038947</v>
+        <v>737684.8888713641</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.631634075656965e-06</v>
+        <v>3.887925668550288e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.18125</v>
       </c>
       <c r="AH4" t="n">
-        <v>605772.1069882527</v>
+        <v>667281.2784247245</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>438.9803178220546</v>
+        <v>488.7634916573817</v>
       </c>
       <c r="AB5" t="n">
-        <v>600.6322372889433</v>
+        <v>668.7477720090619</v>
       </c>
       <c r="AC5" t="n">
-        <v>543.3087395547252</v>
+        <v>604.9234232419093</v>
       </c>
       <c r="AD5" t="n">
-        <v>438980.3178220546</v>
+        <v>488763.4916573818</v>
       </c>
       <c r="AE5" t="n">
-        <v>600632.2372889433</v>
+        <v>668747.7720090619</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.743343503180029e-06</v>
+        <v>4.052963032484539e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.68541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>543308.7395547252</v>
+        <v>604923.4232419092</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>440.2506432947183</v>
+        <v>490.0338171300455</v>
       </c>
       <c r="AB6" t="n">
-        <v>602.3703526434462</v>
+        <v>670.4858873635649</v>
       </c>
       <c r="AC6" t="n">
-        <v>544.8809716192546</v>
+        <v>606.4956553064387</v>
       </c>
       <c r="AD6" t="n">
-        <v>440250.6432947183</v>
+        <v>490033.8171300454</v>
       </c>
       <c r="AE6" t="n">
-        <v>602370.3526434462</v>
+        <v>670485.8873635649</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.743497372914909e-06</v>
+        <v>4.053190356677286e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.68541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>544880.9716192547</v>
+        <v>606495.6553064387</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2006.854647596052</v>
+        <v>2126.089725656802</v>
       </c>
       <c r="AB2" t="n">
-        <v>2745.867065019401</v>
+        <v>2909.00975910251</v>
       </c>
       <c r="AC2" t="n">
-        <v>2483.805366182579</v>
+        <v>2631.377950514606</v>
       </c>
       <c r="AD2" t="n">
-        <v>2006854.647596052</v>
+        <v>2126089.725656802</v>
       </c>
       <c r="AE2" t="n">
-        <v>2745867.065019401</v>
+        <v>2909009.75910251</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.196421073725137e-06</v>
+        <v>1.737405612909002e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.82083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2483805.366182579</v>
+        <v>2631377.950514606</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>788.6611455452046</v>
+        <v>856.8076674162861</v>
       </c>
       <c r="AB3" t="n">
-        <v>1079.080972609105</v>
+        <v>1172.322050245482</v>
       </c>
       <c r="AC3" t="n">
-        <v>976.0949990829484</v>
+        <v>1060.437279134384</v>
       </c>
       <c r="AD3" t="n">
-        <v>788661.1455452046</v>
+        <v>856807.6674162861</v>
       </c>
       <c r="AE3" t="n">
-        <v>1079080.972609105</v>
+        <v>1172322.050245482</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.065898478152478e-06</v>
+        <v>3.000033759407749e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.95208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>976094.9990829484</v>
+        <v>1060437.279134384</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>613.5717680921301</v>
+        <v>673.1893071225051</v>
       </c>
       <c r="AB4" t="n">
-        <v>839.515961979636</v>
+        <v>921.0873090211909</v>
       </c>
       <c r="AC4" t="n">
-        <v>759.3937368363516</v>
+        <v>833.1800290023654</v>
       </c>
       <c r="AD4" t="n">
-        <v>613571.7680921301</v>
+        <v>673189.307122505</v>
       </c>
       <c r="AE4" t="n">
-        <v>839515.961979636</v>
+        <v>921087.3090211909</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.380980245616341e-06</v>
+        <v>3.457585739508336e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.97291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>759393.7368363517</v>
+        <v>833180.0290023653</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>541.8063218337884</v>
+        <v>592.8949675320077</v>
       </c>
       <c r="AB5" t="n">
-        <v>741.323312340934</v>
+        <v>811.2250512572155</v>
       </c>
       <c r="AC5" t="n">
-        <v>670.572455864918</v>
+        <v>733.8028709267364</v>
       </c>
       <c r="AD5" t="n">
-        <v>541806.3218337884</v>
+        <v>592894.9675320077</v>
       </c>
       <c r="AE5" t="n">
-        <v>741323.3123409339</v>
+        <v>811225.0512572154</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.551791632024987e-06</v>
+        <v>3.705632742367571e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.10416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>670572.455864918</v>
+        <v>733802.8709267364</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>486.6647413751929</v>
+        <v>537.8386384194328</v>
       </c>
       <c r="AB6" t="n">
-        <v>665.8761692826433</v>
+        <v>735.8945528515742</v>
       </c>
       <c r="AC6" t="n">
-        <v>602.3258822493804</v>
+        <v>665.6618095619109</v>
       </c>
       <c r="AD6" t="n">
-        <v>486664.7413751929</v>
+        <v>537838.6384194328</v>
       </c>
       <c r="AE6" t="n">
-        <v>665876.1692826434</v>
+        <v>735894.5528515741</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.655583273071906e-06</v>
+        <v>3.856355747577176e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.63125</v>
       </c>
       <c r="AH6" t="n">
-        <v>602325.8822493803</v>
+        <v>665661.8095619109</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>474.4655728797924</v>
+        <v>525.6394699240323</v>
       </c>
       <c r="AB7" t="n">
-        <v>649.1847287579059</v>
+        <v>719.2031123268366</v>
       </c>
       <c r="AC7" t="n">
-        <v>587.2274493817398</v>
+        <v>650.5633766942705</v>
       </c>
       <c r="AD7" t="n">
-        <v>474465.5728797924</v>
+        <v>525639.4699240322</v>
       </c>
       <c r="AE7" t="n">
-        <v>649184.7287579059</v>
+        <v>719203.1123268366</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.679603624285622e-06</v>
+        <v>3.891237357354255e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.52708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>587227.4493817398</v>
+        <v>650563.3766942704</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>476.2761610002023</v>
+        <v>527.4500580444422</v>
       </c>
       <c r="AB8" t="n">
-        <v>651.6620553017613</v>
+        <v>721.6804388706919</v>
       </c>
       <c r="AC8" t="n">
-        <v>589.4683433571993</v>
+        <v>652.8042706697299</v>
       </c>
       <c r="AD8" t="n">
-        <v>476276.1610002023</v>
+        <v>527450.0580444422</v>
       </c>
       <c r="AE8" t="n">
-        <v>651662.0553017613</v>
+        <v>721680.4388706919</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.679307076739774e-06</v>
+        <v>3.890806720196514e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.52916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>589468.3433571992</v>
+        <v>652804.2706697299</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>410.0229238251989</v>
+        <v>473.8933073569567</v>
       </c>
       <c r="AB2" t="n">
-        <v>561.0114533123843</v>
+        <v>648.401729822989</v>
       </c>
       <c r="AC2" t="n">
-        <v>507.4693075927696</v>
+        <v>586.5191787662254</v>
       </c>
       <c r="AD2" t="n">
-        <v>410022.9238251989</v>
+        <v>473893.3073569567</v>
       </c>
       <c r="AE2" t="n">
-        <v>561011.4533123843</v>
+        <v>648401.729822989</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.273321773294615e-06</v>
+        <v>3.78949195374917e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.46041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>507469.3075927696</v>
+        <v>586519.1787662255</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>687.3179493607304</v>
+        <v>750.7730258212366</v>
       </c>
       <c r="AB2" t="n">
-        <v>940.4187406432353</v>
+        <v>1027.240775696899</v>
       </c>
       <c r="AC2" t="n">
-        <v>850.6664959222363</v>
+        <v>929.2023578058698</v>
       </c>
       <c r="AD2" t="n">
-        <v>687317.9493607304</v>
+        <v>750773.0258212367</v>
       </c>
       <c r="AE2" t="n">
-        <v>940418.7406432353</v>
+        <v>1027240.775696899</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.121916882121832e-06</v>
+        <v>3.229359353644582e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.03333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>850666.4959222364</v>
+        <v>929202.3578058699</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>412.7643219367761</v>
+        <v>460.3343164456508</v>
       </c>
       <c r="AB3" t="n">
-        <v>564.7623551505932</v>
+        <v>629.8497202776786</v>
       </c>
       <c r="AC3" t="n">
-        <v>510.8622286239636</v>
+        <v>569.7377469740107</v>
       </c>
       <c r="AD3" t="n">
-        <v>412764.321936776</v>
+        <v>460334.3164456508</v>
       </c>
       <c r="AE3" t="n">
-        <v>564762.3551505932</v>
+        <v>629849.7202776786</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.767767372255112e-06</v>
+        <v>4.212283491220718e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.29166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>510862.2286239636</v>
+        <v>569737.7469740107</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>406.7172853600642</v>
+        <v>454.2872798689389</v>
       </c>
       <c r="AB4" t="n">
-        <v>556.4885329299104</v>
+        <v>621.5758980569958</v>
       </c>
       <c r="AC4" t="n">
-        <v>503.3780483836404</v>
+        <v>562.2535667336875</v>
       </c>
       <c r="AD4" t="n">
-        <v>406717.2853600642</v>
+        <v>454287.2798689389</v>
       </c>
       <c r="AE4" t="n">
-        <v>556488.5329299105</v>
+        <v>621575.8980569958</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.7956916285921e-06</v>
+        <v>4.25478160184664e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.16875</v>
       </c>
       <c r="AH4" t="n">
-        <v>503378.0483836404</v>
+        <v>562253.5667336875</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>990.1853250604479</v>
+        <v>1071.762195736188</v>
       </c>
       <c r="AB2" t="n">
-        <v>1354.815245641192</v>
+        <v>1466.432319017275</v>
       </c>
       <c r="AC2" t="n">
-        <v>1225.513580092336</v>
+        <v>1326.478076640952</v>
       </c>
       <c r="AD2" t="n">
-        <v>990185.3250604479</v>
+        <v>1071762.195736188</v>
       </c>
       <c r="AE2" t="n">
-        <v>1354815.245641192</v>
+        <v>1466432.319017275</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.756648687744072e-06</v>
+        <v>2.6225196115717e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.64583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1225513.580092336</v>
+        <v>1326478.076640952</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>531.4174170976147</v>
+        <v>580.4148335243528</v>
       </c>
       <c r="AB3" t="n">
-        <v>727.1087545547713</v>
+        <v>794.149181323288</v>
       </c>
       <c r="AC3" t="n">
-        <v>657.7145155236095</v>
+        <v>718.3566980531691</v>
       </c>
       <c r="AD3" t="n">
-        <v>531417.4170976147</v>
+        <v>580414.8335243529</v>
       </c>
       <c r="AE3" t="n">
-        <v>727108.7545547712</v>
+        <v>794149.181323288</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.506286291177682e-06</v>
+        <v>3.741661606378276e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.06875</v>
       </c>
       <c r="AH3" t="n">
-        <v>657714.5155236095</v>
+        <v>718356.6980531691</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>425.4339127222321</v>
+        <v>474.4312396404193</v>
       </c>
       <c r="AB4" t="n">
-        <v>582.0974482061514</v>
+        <v>649.1377525051199</v>
       </c>
       <c r="AC4" t="n">
-        <v>526.5428847282552</v>
+        <v>587.1849564765882</v>
       </c>
       <c r="AD4" t="n">
-        <v>425433.9127222321</v>
+        <v>474431.2396404193</v>
       </c>
       <c r="AE4" t="n">
-        <v>582097.4482061514</v>
+        <v>649137.7525051199</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.759886428413088e-06</v>
+        <v>4.120263963262295e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.86875</v>
       </c>
       <c r="AH4" t="n">
-        <v>526542.8847282552</v>
+        <v>587184.9564765883</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>424.4369352575466</v>
+        <v>473.4342621757337</v>
       </c>
       <c r="AB5" t="n">
-        <v>580.7333396554271</v>
+        <v>647.7736439543955</v>
       </c>
       <c r="AC5" t="n">
-        <v>525.3089647830736</v>
+        <v>585.9510365314067</v>
       </c>
       <c r="AD5" t="n">
-        <v>424436.9352575465</v>
+        <v>473434.2621757337</v>
       </c>
       <c r="AE5" t="n">
-        <v>580733.3396554271</v>
+        <v>647773.6439543955</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.770105900775333e-06</v>
+        <v>4.135520722839146e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.825</v>
       </c>
       <c r="AH5" t="n">
-        <v>525308.9647830736</v>
+        <v>585951.0365314067</v>
       </c>
     </row>
   </sheetData>
